--- a/configs/VID-PRO-PTZ/assets/Board/Mainboard-PaP.xlsx
+++ b/configs/VID-PRO-PTZ/assets/Board/Mainboard-PaP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
   <si>
     <t>Designator</t>
   </si>
@@ -55,6 +55,90 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>ZX-XH2.54-3PZZ</t>
+  </si>
+  <si>
+    <t>CONN-TH_3P-P2.54_2501S-3P</t>
+  </si>
+  <si>
+    <t>80.899mm</t>
+  </si>
+  <si>
+    <t>-54.102mm</t>
+  </si>
+  <si>
+    <t>78.359mm</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>-43.942mm</t>
+  </si>
+  <si>
+    <t>83.439mm</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>-37.465mm</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>-30.988mm</t>
+  </si>
+  <si>
+    <t>DISP</t>
+  </si>
+  <si>
+    <t>ZX-XH2.54-4PZZ</t>
+  </si>
+  <si>
+    <t>CONN-TH_4P-P2.50_4PIN</t>
+  </si>
+  <si>
+    <t>43.18mm</t>
+  </si>
+  <si>
+    <t>-19.304mm</t>
+  </si>
+  <si>
+    <t>-15.554mm</t>
+  </si>
+  <si>
+    <t>DB1</t>
+  </si>
+  <si>
+    <t>Pico Pi RP2040</t>
+  </si>
+  <si>
+    <t>YD-RP2040</t>
+  </si>
+  <si>
+    <t>61.468mm</t>
+  </si>
+  <si>
+    <t>-37.338mm</t>
+  </si>
+  <si>
+    <t>52.578mm</t>
+  </si>
+  <si>
+    <t>-13.208mm</t>
+  </si>
+  <si>
     <t>C1</t>
   </si>
   <si>
@@ -73,12 +157,6 @@
     <t>44.577mm</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -103,103 +181,10 @@
     <t>-54.737mm</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>ZX-XH2.54-3PZZ</t>
-  </si>
-  <si>
-    <t>CONN-TH_3P-P2.54_2501S-3P</t>
-  </si>
-  <si>
-    <t>80.772mm</t>
-  </si>
-  <si>
-    <t>-52.832mm</t>
-  </si>
-  <si>
-    <t>78.232mm</t>
-  </si>
-  <si>
     <t>TOP</t>
   </si>
   <si>
     <t>-62.611mm</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>80.899mm</t>
-  </si>
-  <si>
-    <t>-43.942mm</t>
-  </si>
-  <si>
-    <t>83.439mm</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>-37.465mm</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>-30.988mm</t>
-  </si>
-  <si>
-    <t>DISP</t>
-  </si>
-  <si>
-    <t>ZX-XH2.54-4PZZ</t>
-  </si>
-  <si>
-    <t>CONN-TH_4P-P2.50_4PIN</t>
-  </si>
-  <si>
-    <t>43.18mm</t>
-  </si>
-  <si>
-    <t>-19.304mm</t>
-  </si>
-  <si>
-    <t>-15.554mm</t>
-  </si>
-  <si>
-    <t>DB1</t>
-  </si>
-  <si>
-    <t>Pico Pi RP2040</t>
-  </si>
-  <si>
-    <t>YD-RP2040</t>
-  </si>
-  <si>
-    <t>61.468mm</t>
-  </si>
-  <si>
-    <t>-37.338mm</t>
-  </si>
-  <si>
-    <t>52.578mm</t>
-  </si>
-  <si>
-    <t>-13.208mm</t>
-  </si>
-  <si>
-    <t>CFG</t>
-  </si>
-  <si>
-    <t>35.306mm</t>
-  </si>
-  <si>
-    <t>-50.419mm</t>
-  </si>
-  <si>
-    <t>-51.689mm</t>
   </si>
 </sst>
 </file>
@@ -576,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -658,13 +643,13 @@
         <v>18</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
       </c>
       <c r="L2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>21</v>
@@ -684,25 +669,25 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
@@ -719,7 +704,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -728,25 +713,25 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
@@ -763,7 +748,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -772,25 +757,25 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
@@ -807,122 +792,122 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
         <v>34</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
         <v>20</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M6" t="s">
         <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
       </c>
       <c r="L7">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M7" t="s">
         <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
@@ -934,39 +919,39 @@
         <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
@@ -978,39 +963,39 @@
         <v>21</v>
       </c>
       <c r="N9" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
@@ -1022,139 +1007,95 @@
         <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
         <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K11" t="s">
         <v>20</v>
       </c>
       <c r="L11">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M11" t="s">
         <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
       <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>57</v>
       </c>
-      <c r="I12" t="s">
-        <v>58</v>
-      </c>
       <c r="J12">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="K12" t="s">
         <v>20</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M12" t="s">
         <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13">
-        <v>90</v>
-      </c>
-      <c r="M13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
